--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bests\Documents\Coding\Works\AppdynScrapper\report-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A067758-CA9B-4473-BEBE-64B097622622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A730B4-7F3F-4E0A-B373-3A1E863789FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A4D08EE6-AB8A-43C8-A094-FBCC09A791D4}"/>
   </bookViews>
